--- a/Question_Set2/Role-specific skills/Financial Modeling in Excel.xlsx
+++ b/Question_Set2/Role-specific skills/Financial Modeling in Excel.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Sally’s Salsa Shop has a balance sheet value of equities and liabilities of $10m. It is acquired by Tim’s Taco Truck for $15m. How is the extra $5m recorded on the balance sheet?', 'ques_type': 2, 'options': ['As sunk costs', 'As goodwill', 'As non-current liabilities', 'It is not recorded on the balance sheet'], 'score': 'As goodwill'}, {'title': 'Which valuation method should be used for a company with uncertain cash flows in a volatile industry (e.g., a tech startup)? ', 'ques_type': 2, 'options': ['A discounted cash flow: The uncertainty will be accounted for in the discount rate.', 'Precedent transactions: This shows how previous investors have assessed the risk of the uncertain cashflows.', 'Net income valuation: This shows you how much income the company has actually made, which is a good indication of the company’s future earnings.', 'Asset valuation: Looking at a company’s assets is the only tangible way to value a company.'], 'score': 'Precedent transactions: This shows how previous investors have assessed the risk of the uncertain cashflows.'}, {'title': 'A financial model workbook contains the following tabs. What kind of tabs are these? ', 'ques_type': 2, 'options': ['Calculation tabs', 'Input tabs', 'Accounting tabs', 'Model tabs'], 'score': 'Calculation tabs'}, {'title': 'Why would you use this view of formulas?', 'ques_type': 2, 'options': ['To find inconsistencies or hard-coded inputs.', 'To trace dependents and precedents.', 'To set the cell formats.', 'To indicate cells that still require changes.'], 'score': 'To find inconsistencies or hard-coded inputs.'}]</t>
+    <t>questions = [
+    {
+        "title": "Sally\u2019s Salsa Shop has a balance sheet value of equities and liabilities of $10m. It is acquired by Tim\u2019s Taco Truck for $15m. How is the extra $5m recorded on the balance sheet?",
+        "ques_type": 2,
+        "options": [
+            "As sunk costs",
+            "As goodwill",
+            "As non-current liabilities",
+            "It is not recorded on the balance sheet"
+        ],
+        "score": "As goodwill"
+    },
+    {
+        "title": "Which valuation method should be used for a company with uncertain cash flows in a volatile industry (e.g., a tech startup)?",
+        "ques_type": 2,
+        "options": [
+            "A discounted cash flow: The uncertainty will be accounted for in the discount rate.",
+            "Precedent transactions: This shows how previous investors have assessed the risk of the uncertain cashflows.",
+            "Net income valuation: This shows you how much income the company has actually made, which is a good indication of the company\u2019s future earnings.",
+            "Asset valuation: Looking at a company\u2019s assets is the only tangible way to value a company."
+        ],
+        "score": "Precedent transactions: This shows how previous investors have assessed the risk of the uncertain cashflows."
+    },
+    {
+        "title": "A financial model workbook contains the following tabs. What kind of tabs are these?",
+        "ques_type": 2,
+        "options": [
+            "Calculation tabs",
+            "Input tabs",
+            "Accounting tabs",
+            "Model tabs"
+        ],
+        "score": "Calculation tabs"
+    },
+    {
+        "title": "Why would you use this view of formulas?",
+        "ques_type": 2,
+        "options": [
+            "To find inconsistencies or hard-coded inputs.",
+            "To trace dependents and precedents.",
+            "To set the cell formats.",
+            "To indicate cells that still require changes."
+        ],
+        "score": "To find inconsistencies or hard-coded inputs."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
